--- a/data/out/tb_euro_uefa.xlsx
+++ b/data/out/tb_euro_uefa.xlsx
@@ -1206,23 +1206,23 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>Scotland</t>
         </is>
       </c>
       <c r="D26" t="n">
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27">
@@ -1236,7 +1236,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Scotland</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="D27" t="n">
@@ -1249,10 +1249,10 @@
         <v>1</v>
       </c>
       <c r="G27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1333,16 +1333,16 @@
         <v>1</v>
       </c>
       <c r="E30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31">
@@ -1363,16 +1363,16 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F31" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32">
@@ -2143,10 +2143,10 @@
         <v>1</v>
       </c>
       <c r="E57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G57" t="n">
         <v>0</v>
@@ -2166,11 +2166,11 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Greece</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="D58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E58" t="n">
         <v>1</v>
@@ -2182,7 +2182,7 @@
         <v>0</v>
       </c>
       <c r="H58" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59">
@@ -2196,11 +2196,11 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Russia</t>
         </is>
       </c>
       <c r="D59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E59" t="n">
         <v>0</v>
@@ -2209,7 +2209,7 @@
         <v>1</v>
       </c>
       <c r="G59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H59" t="n">
         <v>2</v>
@@ -2226,7 +2226,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Russia</t>
+          <t>Greece</t>
         </is>
       </c>
       <c r="D60" t="n">
@@ -2236,13 +2236,13 @@
         <v>0</v>
       </c>
       <c r="F60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G60" t="n">
         <v>1</v>
       </c>
       <c r="H60" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61">
@@ -2260,10 +2260,10 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E61" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F61" t="n">
         <v>0</v>
@@ -2272,7 +2272,7 @@
         <v>0</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="62">
@@ -2320,7 +2320,7 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E63" t="n">
         <v>1</v>
@@ -2332,7 +2332,7 @@
         <v>0</v>
       </c>
       <c r="H63" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="64">
@@ -2376,20 +2376,20 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="D65" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H65" t="n">
         <v>3</v>
@@ -2406,11 +2406,11 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="D66" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E66" t="n">
         <v>2</v>
@@ -2422,7 +2422,7 @@
         <v>0</v>
       </c>
       <c r="H66" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="67">
@@ -2436,23 +2436,23 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Denmark</t>
         </is>
       </c>
       <c r="D67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F67" t="n">
         <v>1</v>
       </c>
       <c r="G67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H67" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="68">
@@ -2500,19 +2500,19 @@
         </is>
       </c>
       <c r="D69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G69" t="n">
         <v>0</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="70">
@@ -2560,7 +2560,7 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E71" t="n">
         <v>0</v>
@@ -2572,7 +2572,7 @@
         <v>0</v>
       </c>
       <c r="H71" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72">
@@ -2616,23 +2616,23 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Turkey</t>
         </is>
       </c>
       <c r="D73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E73" t="n">
         <v>0</v>
       </c>
       <c r="F73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="74">
@@ -2646,14 +2646,14 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Turkey</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="D74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E74" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F74" t="n">
         <v>0</v>
@@ -2662,7 +2662,7 @@
         <v>0</v>
       </c>
       <c r="H74" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="75">
@@ -2676,7 +2676,7 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Czech Republic</t>
+          <t>Switzerland</t>
         </is>
       </c>
       <c r="D75" t="n">
@@ -2686,13 +2686,13 @@
         <v>0</v>
       </c>
       <c r="F75" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H75" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="76">
@@ -2706,23 +2706,23 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Switzerland</t>
+          <t>Czech Republic</t>
         </is>
       </c>
       <c r="D76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F76" t="n">
         <v>0</v>
       </c>
       <c r="G76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="77">
@@ -3046,13 +3046,13 @@
         <v>0</v>
       </c>
       <c r="F87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88">
@@ -3076,13 +3076,13 @@
         <v>0</v>
       </c>
       <c r="F88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89">
@@ -3109,10 +3109,10 @@
         <v>0</v>
       </c>
       <c r="G89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H89" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90">
@@ -3126,11 +3126,11 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Russia</t>
+          <t>Greece</t>
         </is>
       </c>
       <c r="D90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E90" t="n">
         <v>1</v>
@@ -3142,7 +3142,7 @@
         <v>0</v>
       </c>
       <c r="H90" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91">
@@ -3156,14 +3156,14 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Greece</t>
+          <t>Russia</t>
         </is>
       </c>
       <c r="D91" t="n">
         <v>0</v>
       </c>
       <c r="E91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F91" t="n">
         <v>1</v>
@@ -3172,7 +3172,7 @@
         <v>0</v>
       </c>
       <c r="H91" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92">
@@ -3196,13 +3196,13 @@
         <v>0</v>
       </c>
       <c r="F92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G92" t="n">
         <v>1</v>
       </c>
       <c r="H92" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93">
@@ -3343,7 +3343,7 @@
         <v>1</v>
       </c>
       <c r="E97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F97" t="n">
         <v>0</v>
@@ -3352,7 +3352,7 @@
         <v>0</v>
       </c>
       <c r="H97" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98">
@@ -3370,7 +3370,7 @@
         </is>
       </c>
       <c r="D98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E98" t="n">
         <v>1</v>
@@ -3382,7 +3382,7 @@
         <v>0</v>
       </c>
       <c r="H98" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99">
@@ -3486,23 +3486,23 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="D102" t="n">
         <v>0</v>
       </c>
       <c r="E102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G102" t="n">
         <v>0</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103">
@@ -3516,7 +3516,7 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>France</t>
         </is>
       </c>
       <c r="D103" t="n">
@@ -3526,13 +3526,13 @@
         <v>0</v>
       </c>
       <c r="F103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G103" t="n">
         <v>0</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104">
@@ -3546,7 +3546,7 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>Ukraine</t>
         </is>
       </c>
       <c r="D104" t="n">
@@ -3559,10 +3559,10 @@
         <v>0</v>
       </c>
       <c r="G104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105">
@@ -4056,11 +4056,11 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Belgium</t>
         </is>
       </c>
       <c r="D121" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E121" t="n">
         <v>0</v>
@@ -4072,7 +4072,7 @@
         <v>0</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="122">
@@ -4086,14 +4086,14 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>Belgium</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="D122" t="n">
         <v>0</v>
       </c>
       <c r="E122" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F122" t="n">
         <v>0</v>
@@ -4102,7 +4102,7 @@
         <v>0</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123">
@@ -4176,23 +4176,23 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Hungary</t>
+          <t>Iceland</t>
         </is>
       </c>
       <c r="D125" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E125" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F125" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G125" t="n">
         <v>0</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="126">
@@ -4206,23 +4206,23 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Iceland</t>
+          <t>Hungary</t>
         </is>
       </c>
       <c r="D126" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E126" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F126" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G126" t="n">
         <v>0</v>
       </c>
       <c r="H126" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="127">
@@ -4246,13 +4246,13 @@
         <v>1</v>
       </c>
       <c r="F127" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G127" t="n">
         <v>0</v>
       </c>
       <c r="H127" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="128">
@@ -4279,10 +4279,10 @@
         <v>0</v>
       </c>
       <c r="G128" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129">
@@ -4326,14 +4326,14 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>Wales</t>
+          <t>Switzerland</t>
         </is>
       </c>
       <c r="D130" t="n">
         <v>0</v>
       </c>
       <c r="E130" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F130" t="n">
         <v>0</v>
@@ -4342,7 +4342,7 @@
         <v>0</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="131">
@@ -4356,7 +4356,7 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>Switzerland</t>
+          <t>Wales</t>
         </is>
       </c>
       <c r="D131" t="n">
@@ -4366,13 +4366,13 @@
         <v>0</v>
       </c>
       <c r="F131" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G131" t="n">
         <v>0</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="132">
@@ -4446,23 +4446,23 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>Finland</t>
+          <t>Denmark</t>
         </is>
       </c>
       <c r="D134" t="n">
         <v>0</v>
       </c>
       <c r="E134" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F134" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G134" t="n">
         <v>0</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="135">
@@ -4506,7 +4506,7 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Finland</t>
         </is>
       </c>
       <c r="D136" t="n">
@@ -4516,13 +4516,13 @@
         <v>0</v>
       </c>
       <c r="F136" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G136" t="n">
         <v>1</v>
       </c>
       <c r="H136" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="137">
@@ -4693,16 +4693,16 @@
         <v>0</v>
       </c>
       <c r="E142" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F142" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G142" t="n">
         <v>0</v>
       </c>
       <c r="H142" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="143">
@@ -4723,16 +4723,16 @@
         <v>0</v>
       </c>
       <c r="E143" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F143" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G143" t="n">
         <v>0</v>
       </c>
       <c r="H143" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="144">
@@ -4903,10 +4903,10 @@
         <v>2</v>
       </c>
       <c r="E149" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F149" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G149" t="n">
         <v>0</v>
@@ -4936,13 +4936,13 @@
         <v>2</v>
       </c>
       <c r="F150" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G150" t="n">
         <v>0</v>
       </c>
       <c r="H150" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="151">
@@ -4993,10 +4993,10 @@
         <v>0</v>
       </c>
       <c r="E152" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F152" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G152" t="n">
         <v>2</v>
@@ -5260,10 +5260,10 @@
         </is>
       </c>
       <c r="D161" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E161" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F161" t="n">
         <v>0</v>
@@ -5272,7 +5272,7 @@
         <v>0</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="162">
@@ -5290,7 +5290,7 @@
         </is>
       </c>
       <c r="D162" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E162" t="n">
         <v>2</v>
@@ -5302,7 +5302,7 @@
         <v>0</v>
       </c>
       <c r="H162" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="163">
@@ -5563,7 +5563,7 @@
         <v>0</v>
       </c>
       <c r="E171" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F171" t="n">
         <v>1</v>
@@ -5572,7 +5572,7 @@
         <v>0</v>
       </c>
       <c r="H171" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="172">
@@ -5593,10 +5593,10 @@
         <v>0</v>
       </c>
       <c r="E172" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F172" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G172" t="n">
         <v>1</v>
@@ -5616,23 +5616,23 @@
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Turkey</t>
         </is>
       </c>
       <c r="D173" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E173" t="n">
         <v>0</v>
       </c>
       <c r="F173" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G173" t="n">
         <v>0</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="174">
@@ -5646,14 +5646,14 @@
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>Turkey</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="D174" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E174" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F174" t="n">
         <v>0</v>
@@ -5662,7 +5662,7 @@
         <v>0</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="175">
@@ -5683,16 +5683,16 @@
         <v>0</v>
       </c>
       <c r="E175" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F175" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G175" t="n">
         <v>0</v>
       </c>
       <c r="H175" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="176">

--- a/data/out/tb_euro_uefa.xlsx
+++ b/data/out/tb_euro_uefa.xlsx
@@ -1206,23 +1206,23 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Scotland</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="D26" t="n">
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -1236,7 +1236,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>Scotland</t>
         </is>
       </c>
       <c r="D27" t="n">
@@ -1249,10 +1249,10 @@
         <v>1</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28">
@@ -1333,16 +1333,16 @@
         <v>1</v>
       </c>
       <c r="E30" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="31">
@@ -1363,16 +1363,16 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F31" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="32">
@@ -2143,10 +2143,10 @@
         <v>1</v>
       </c>
       <c r="E57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G57" t="n">
         <v>0</v>
@@ -2166,11 +2166,11 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Greece</t>
         </is>
       </c>
       <c r="D58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E58" t="n">
         <v>1</v>
@@ -2182,7 +2182,7 @@
         <v>0</v>
       </c>
       <c r="H58" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59">
@@ -2196,11 +2196,11 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Russia</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="D59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E59" t="n">
         <v>0</v>
@@ -2209,7 +2209,7 @@
         <v>1</v>
       </c>
       <c r="G59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H59" t="n">
         <v>2</v>
@@ -2226,7 +2226,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Greece</t>
+          <t>Russia</t>
         </is>
       </c>
       <c r="D60" t="n">
@@ -2236,13 +2236,13 @@
         <v>0</v>
       </c>
       <c r="F60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G60" t="n">
         <v>1</v>
       </c>
       <c r="H60" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61">
@@ -2260,10 +2260,10 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E61" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F61" t="n">
         <v>0</v>
@@ -2272,7 +2272,7 @@
         <v>0</v>
       </c>
       <c r="H61" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62">
@@ -2320,7 +2320,7 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E63" t="n">
         <v>1</v>
@@ -2332,7 +2332,7 @@
         <v>0</v>
       </c>
       <c r="H63" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64">
@@ -2376,20 +2376,20 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="D65" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H65" t="n">
         <v>3</v>
@@ -2406,11 +2406,11 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>Denmark</t>
         </is>
       </c>
       <c r="D66" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E66" t="n">
         <v>2</v>
@@ -2422,7 +2422,7 @@
         <v>0</v>
       </c>
       <c r="H66" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="67">
@@ -2436,23 +2436,23 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="D67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E67" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F67" t="n">
         <v>1</v>
       </c>
       <c r="G67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H67" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68">
@@ -2500,19 +2500,19 @@
         </is>
       </c>
       <c r="D69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G69" t="n">
         <v>0</v>
       </c>
       <c r="H69" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70">
@@ -2560,7 +2560,7 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E71" t="n">
         <v>0</v>
@@ -2572,7 +2572,7 @@
         <v>0</v>
       </c>
       <c r="H71" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2616,23 +2616,23 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Turkey</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="D73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E73" t="n">
         <v>0</v>
       </c>
       <c r="F73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H73" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -2646,14 +2646,14 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Turkey</t>
         </is>
       </c>
       <c r="D74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E74" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F74" t="n">
         <v>0</v>
@@ -2662,7 +2662,7 @@
         <v>0</v>
       </c>
       <c r="H74" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75">
@@ -2676,7 +2676,7 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Switzerland</t>
+          <t>Czech Republic</t>
         </is>
       </c>
       <c r="D75" t="n">
@@ -2686,13 +2686,13 @@
         <v>0</v>
       </c>
       <c r="F75" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H75" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76">
@@ -2706,23 +2706,23 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Czech Republic</t>
+          <t>Switzerland</t>
         </is>
       </c>
       <c r="D76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F76" t="n">
         <v>0</v>
       </c>
       <c r="G76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H76" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77">
@@ -3046,13 +3046,13 @@
         <v>0</v>
       </c>
       <c r="F87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H87" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
@@ -3076,13 +3076,13 @@
         <v>0</v>
       </c>
       <c r="F88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H88" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -3109,10 +3109,10 @@
         <v>0</v>
       </c>
       <c r="G89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H89" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90">
@@ -3126,11 +3126,11 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Greece</t>
+          <t>Russia</t>
         </is>
       </c>
       <c r="D90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E90" t="n">
         <v>1</v>
@@ -3142,7 +3142,7 @@
         <v>0</v>
       </c>
       <c r="H90" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91">
@@ -3156,14 +3156,14 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Russia</t>
+          <t>Greece</t>
         </is>
       </c>
       <c r="D91" t="n">
         <v>0</v>
       </c>
       <c r="E91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F91" t="n">
         <v>1</v>
@@ -3172,7 +3172,7 @@
         <v>0</v>
       </c>
       <c r="H91" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92">
@@ -3196,13 +3196,13 @@
         <v>0</v>
       </c>
       <c r="F92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G92" t="n">
         <v>1</v>
       </c>
       <c r="H92" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93">
@@ -3343,7 +3343,7 @@
         <v>1</v>
       </c>
       <c r="E97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F97" t="n">
         <v>0</v>
@@ -3352,7 +3352,7 @@
         <v>0</v>
       </c>
       <c r="H97" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3370,7 +3370,7 @@
         </is>
       </c>
       <c r="D98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E98" t="n">
         <v>1</v>
@@ -3382,7 +3382,7 @@
         <v>0</v>
       </c>
       <c r="H98" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99">
@@ -3486,23 +3486,23 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>France</t>
         </is>
       </c>
       <c r="D102" t="n">
         <v>0</v>
       </c>
       <c r="E102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G102" t="n">
         <v>0</v>
       </c>
       <c r="H102" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103">
@@ -3516,7 +3516,7 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Ukraine</t>
         </is>
       </c>
       <c r="D103" t="n">
@@ -3526,13 +3526,13 @@
         <v>0</v>
       </c>
       <c r="F103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G103" t="n">
         <v>0</v>
       </c>
       <c r="H103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104">
@@ -3546,7 +3546,7 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="D104" t="n">
@@ -3559,10 +3559,10 @@
         <v>0</v>
       </c>
       <c r="G104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105">
@@ -4056,11 +4056,11 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Belgium</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="D121" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E121" t="n">
         <v>0</v>
@@ -4072,7 +4072,7 @@
         <v>0</v>
       </c>
       <c r="H121" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122">
@@ -4086,14 +4086,14 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Belgium</t>
         </is>
       </c>
       <c r="D122" t="n">
         <v>0</v>
       </c>
       <c r="E122" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F122" t="n">
         <v>0</v>
@@ -4102,7 +4102,7 @@
         <v>0</v>
       </c>
       <c r="H122" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123">
@@ -4176,23 +4176,23 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Iceland</t>
+          <t>Hungary</t>
         </is>
       </c>
       <c r="D125" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E125" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F125" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G125" t="n">
         <v>0</v>
       </c>
       <c r="H125" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126">
@@ -4206,23 +4206,23 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Hungary</t>
+          <t>Iceland</t>
         </is>
       </c>
       <c r="D126" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E126" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F126" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G126" t="n">
         <v>0</v>
       </c>
       <c r="H126" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="127">
@@ -4246,13 +4246,13 @@
         <v>1</v>
       </c>
       <c r="F127" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G127" t="n">
         <v>0</v>
       </c>
       <c r="H127" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="128">
@@ -4279,10 +4279,10 @@
         <v>0</v>
       </c>
       <c r="G128" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H128" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129">
@@ -4326,14 +4326,14 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>Switzerland</t>
+          <t>Wales</t>
         </is>
       </c>
       <c r="D130" t="n">
         <v>0</v>
       </c>
       <c r="E130" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F130" t="n">
         <v>0</v>
@@ -4342,7 +4342,7 @@
         <v>0</v>
       </c>
       <c r="H130" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131">
@@ -4356,7 +4356,7 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>Wales</t>
+          <t>Switzerland</t>
         </is>
       </c>
       <c r="D131" t="n">
@@ -4366,13 +4366,13 @@
         <v>0</v>
       </c>
       <c r="F131" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G131" t="n">
         <v>0</v>
       </c>
       <c r="H131" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132">
@@ -4446,23 +4446,23 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Finland</t>
         </is>
       </c>
       <c r="D134" t="n">
         <v>0</v>
       </c>
       <c r="E134" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F134" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G134" t="n">
         <v>0</v>
       </c>
       <c r="H134" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135">
@@ -4506,7 +4506,7 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>Finland</t>
+          <t>Denmark</t>
         </is>
       </c>
       <c r="D136" t="n">
@@ -4516,13 +4516,13 @@
         <v>0</v>
       </c>
       <c r="F136" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G136" t="n">
         <v>1</v>
       </c>
       <c r="H136" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="137">
@@ -4693,16 +4693,16 @@
         <v>0</v>
       </c>
       <c r="E142" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F142" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G142" t="n">
         <v>0</v>
       </c>
       <c r="H142" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="143">
@@ -4723,16 +4723,16 @@
         <v>0</v>
       </c>
       <c r="E143" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F143" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G143" t="n">
         <v>0</v>
       </c>
       <c r="H143" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="144">
@@ -4903,10 +4903,10 @@
         <v>2</v>
       </c>
       <c r="E149" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F149" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G149" t="n">
         <v>0</v>
@@ -4936,13 +4936,13 @@
         <v>2</v>
       </c>
       <c r="F150" t="n">
+        <v>0</v>
+      </c>
+      <c r="G150" t="n">
+        <v>0</v>
+      </c>
+      <c r="H150" t="n">
         <v>3</v>
-      </c>
-      <c r="G150" t="n">
-        <v>0</v>
-      </c>
-      <c r="H150" t="n">
-        <v>6</v>
       </c>
     </row>
     <row r="151">
@@ -4993,10 +4993,10 @@
         <v>0</v>
       </c>
       <c r="E152" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F152" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G152" t="n">
         <v>2</v>
@@ -5260,10 +5260,10 @@
         </is>
       </c>
       <c r="D161" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E161" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F161" t="n">
         <v>0</v>
@@ -5272,7 +5272,7 @@
         <v>0</v>
       </c>
       <c r="H161" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162">
@@ -5290,7 +5290,7 @@
         </is>
       </c>
       <c r="D162" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E162" t="n">
         <v>2</v>
@@ -5302,7 +5302,7 @@
         <v>0</v>
       </c>
       <c r="H162" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="163">
@@ -5563,7 +5563,7 @@
         <v>0</v>
       </c>
       <c r="E171" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F171" t="n">
         <v>1</v>
@@ -5572,7 +5572,7 @@
         <v>0</v>
       </c>
       <c r="H171" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="172">
@@ -5593,10 +5593,10 @@
         <v>0</v>
       </c>
       <c r="E172" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F172" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G172" t="n">
         <v>1</v>
@@ -5616,23 +5616,23 @@
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>Turkey</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="D173" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E173" t="n">
         <v>0</v>
       </c>
       <c r="F173" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G173" t="n">
         <v>0</v>
       </c>
       <c r="H173" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174">
@@ -5646,14 +5646,14 @@
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Turkey</t>
         </is>
       </c>
       <c r="D174" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E174" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F174" t="n">
         <v>0</v>
@@ -5662,7 +5662,7 @@
         <v>0</v>
       </c>
       <c r="H174" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175">
@@ -5683,16 +5683,16 @@
         <v>0</v>
       </c>
       <c r="E175" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F175" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G175" t="n">
         <v>0</v>
       </c>
       <c r="H175" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="176">
